--- a/C-Learning_layout.xlsx
+++ b/C-Learning_layout.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/i17oonaka/programing/other/souzouEnsyu/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D95F1B5-968D-0D41-A6B2-D872D8119074}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{981CFC0E-DC1E-7E4A-B437-73506B11F78E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{78A1B107-CE81-F34A-9CDE-02132650A4B6}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" xr2:uid="{78A1B107-CE81-F34A-9CDE-02132650A4B6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
   <si>
     <t>画面サイズ：width=1000px , height=600px</t>
     <rPh sb="0" eb="2">
@@ -78,19 +78,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>&lt;1.1.8.1&gt;1セルに改行込みで2行分のコードを入れたい</t>
-    <rPh sb="13" eb="16">
-      <t>カイギョウ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ギョウブン</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>イレタ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>&lt;1.2.8.1&gt;</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -142,11 +129,27 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>&lt;4,21,1,2&gt;</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>&lt;1,21,3,1&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;1.1.8.1&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;5,21,1,2&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;6,21,1,1&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;6,22,1,1&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;7,21,1,2&gt;</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -154,7 +157,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -169,6 +172,20 @@
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="6">
@@ -217,7 +234,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -233,13 +250,25 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -558,8 +587,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{399776A8-7709-AF47-A8A8-715ACFC87567}">
   <dimension ref="A1:W27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y8" sqref="Y8"/>
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24:H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7.140625" defaultRowHeight="25" customHeight="1"/>
@@ -575,7 +604,7 @@
     </row>
     <row r="2" spans="1:23" ht="25" customHeight="1">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
         <v>5</v>
@@ -659,18 +688,18 @@
       <c r="A4">
         <v>1</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
+      <c r="B4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -686,18 +715,18 @@
       <c r="A5">
         <v>2</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
+      <c r="B5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -713,18 +742,18 @@
       <c r="A6">
         <v>3</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
+      <c r="B6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -740,18 +769,18 @@
       <c r="A7">
         <v>4</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
+      <c r="B7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -767,18 +796,18 @@
       <c r="A8">
         <v>5</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
+      <c r="B8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -794,18 +823,18 @@
       <c r="A9">
         <v>6</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
+      <c r="B9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -821,18 +850,18 @@
       <c r="A10">
         <v>7</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
+      <c r="B10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -848,18 +877,18 @@
       <c r="A11">
         <v>8</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
+      <c r="B11" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -875,18 +904,18 @@
       <c r="A12">
         <v>9</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
+      <c r="B12" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -902,18 +931,18 @@
       <c r="A13">
         <v>10</v>
       </c>
-      <c r="B13" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
+      <c r="B13" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -929,18 +958,18 @@
       <c r="A14">
         <v>11</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
+      <c r="B14" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -956,18 +985,18 @@
       <c r="A15">
         <v>12</v>
       </c>
-      <c r="B15" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
+      <c r="B15" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -983,18 +1012,18 @@
       <c r="A16">
         <v>13</v>
       </c>
-      <c r="B16" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
+      <c r="B16" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -1010,18 +1039,18 @@
       <c r="A17">
         <v>14</v>
       </c>
-      <c r="B17" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
+      <c r="B17" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -1037,18 +1066,18 @@
       <c r="A18">
         <v>15</v>
       </c>
-      <c r="B18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
+      <c r="B18" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -1064,18 +1093,18 @@
       <c r="A19">
         <v>16</v>
       </c>
-      <c r="B19" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
+      <c r="B19" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -1091,18 +1120,18 @@
       <c r="A20">
         <v>17</v>
       </c>
-      <c r="B20" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
+      <c r="B20" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -1118,18 +1147,18 @@
       <c r="A21">
         <v>18</v>
       </c>
-      <c r="B21" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
+      <c r="B21" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -1145,18 +1174,18 @@
       <c r="A22">
         <v>19</v>
       </c>
-      <c r="B22" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
+      <c r="B22" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -1172,18 +1201,18 @@
       <c r="A23">
         <v>20</v>
       </c>
-      <c r="B23" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
+      <c r="B23" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -1199,16 +1228,23 @@
       <c r="A24">
         <v>21</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
+      <c r="G24" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -1224,9 +1260,14 @@
       <c r="A25">
         <v>22</v>
       </c>
-      <c r="E25" s="5"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="H25" s="11"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -1242,8 +1283,8 @@
       <c r="A26">
         <v>23</v>
       </c>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -1259,8 +1300,8 @@
       <c r="A27">
         <v>24</v>
       </c>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -1273,7 +1314,7 @@
       <c r="U27" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="23">
     <mergeCell ref="B10:I10"/>
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="B12:I12"/>
@@ -1289,13 +1330,14 @@
     <mergeCell ref="B16:I16"/>
     <mergeCell ref="B17:I17"/>
     <mergeCell ref="B18:I18"/>
-    <mergeCell ref="E24:E25"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="B19:I19"/>
     <mergeCell ref="B20:I20"/>
     <mergeCell ref="B21:I21"/>
     <mergeCell ref="B22:I22"/>
     <mergeCell ref="B23:I23"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="H24:H25"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/C-Learning_layout.xlsx
+++ b/C-Learning_layout.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/i17oonaka/programing/other/souzouEnsyu/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{981CFC0E-DC1E-7E4A-B437-73506B11F78E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D51D102-7EE0-134A-9F39-6D7A8DFCDF7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" xr2:uid="{78A1B107-CE81-F34A-9CDE-02132650A4B6}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16080" xr2:uid="{78A1B107-CE81-F34A-9CDE-02132650A4B6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="35">
   <si>
     <t>画面サイズ：width=1000px , height=600px</t>
     <rPh sb="0" eb="2">
@@ -152,12 +152,62 @@
     <t>&lt;7,21,1,2&gt;</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>x,y,sx,sy</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>x+1,y,sx,sy</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>x,y+1,sx,xy</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>型名</t>
+    <rPh sb="0" eb="2">
+      <t>カタメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変数名</t>
+    <rPh sb="0" eb="3">
+      <t>ヘンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>⇦</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>input</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>x+1,y+1,sx,sy</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>x+1,y+2,sx,sy</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>x+1,y+3,sx,sy</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -187,8 +237,23 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -219,6 +284,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -234,7 +305,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -250,26 +321,41 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -585,15 +671,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{399776A8-7709-AF47-A8A8-715ACFC87567}">
-  <dimension ref="A1:W27"/>
+  <dimension ref="A1:Z27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24:H25"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="140" workbookViewId="0">
+      <selection activeCell="W8" sqref="W8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7.140625" defaultRowHeight="25" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:23" ht="25" customHeight="1">
+    <row r="1" spans="1:26" ht="25" customHeight="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -602,7 +688,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="25" customHeight="1">
+    <row r="2" spans="1:26" ht="25" customHeight="1">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -615,7 +701,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="25" customHeight="1">
+    <row r="3" spans="1:26" ht="25" customHeight="1">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -684,24 +770,28 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="25" customHeight="1">
+    <row r="4" spans="1:26" ht="25" customHeight="1">
       <c r="A4">
         <v>1</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
+      <c r="L4" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="M4" s="12" t="s">
+        <v>26</v>
+      </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
@@ -711,47 +801,63 @@
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
     </row>
-    <row r="5" spans="1:23" ht="25" customHeight="1">
+    <row r="5" spans="1:26" ht="25" customHeight="1">
       <c r="A5">
         <v>2</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
+      <c r="L5" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="M5" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="N5" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="O5" s="16" t="s">
+        <v>34</v>
+      </c>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
       <c r="U5" s="2"/>
-    </row>
-    <row r="6" spans="1:23" ht="25" customHeight="1">
+      <c r="W5" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="X5" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y5" s="15"/>
+      <c r="Z5" s="15"/>
+    </row>
+    <row r="6" spans="1:26" ht="25" customHeight="1">
       <c r="A6">
         <v>3</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
       <c r="L6" s="2"/>
@@ -764,21 +870,33 @@
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
       <c r="U6" s="2"/>
-    </row>
-    <row r="7" spans="1:23" ht="25" customHeight="1">
+      <c r="W6" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="X6" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y6" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z6" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" ht="25" customHeight="1">
       <c r="A7">
         <v>4</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
       <c r="L7" s="2"/>
@@ -792,20 +910,20 @@
       <c r="T7" s="2"/>
       <c r="U7" s="2"/>
     </row>
-    <row r="8" spans="1:23" ht="25" customHeight="1">
+    <row r="8" spans="1:26" ht="25" customHeight="1">
       <c r="A8">
         <v>5</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
       <c r="L8" s="2"/>
@@ -819,20 +937,20 @@
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
     </row>
-    <row r="9" spans="1:23" ht="25" customHeight="1">
+    <row r="9" spans="1:26" ht="25" customHeight="1">
       <c r="A9">
         <v>6</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
       <c r="L9" s="2"/>
@@ -846,20 +964,20 @@
       <c r="T9" s="2"/>
       <c r="U9" s="2"/>
     </row>
-    <row r="10" spans="1:23" ht="25" customHeight="1">
+    <row r="10" spans="1:26" ht="25" customHeight="1">
       <c r="A10">
         <v>7</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
       <c r="L10" s="2"/>
@@ -873,20 +991,20 @@
       <c r="T10" s="2"/>
       <c r="U10" s="2"/>
     </row>
-    <row r="11" spans="1:23" ht="25" customHeight="1">
+    <row r="11" spans="1:26" ht="25" customHeight="1">
       <c r="A11">
         <v>8</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
       <c r="L11" s="2"/>
@@ -900,20 +1018,20 @@
       <c r="T11" s="2"/>
       <c r="U11" s="2"/>
     </row>
-    <row r="12" spans="1:23" ht="25" customHeight="1">
+    <row r="12" spans="1:26" ht="25" customHeight="1">
       <c r="A12">
         <v>9</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
       <c r="L12" s="2"/>
@@ -927,20 +1045,20 @@
       <c r="T12" s="2"/>
       <c r="U12" s="2"/>
     </row>
-    <row r="13" spans="1:23" ht="25" customHeight="1">
+    <row r="13" spans="1:26" ht="25" customHeight="1">
       <c r="A13">
         <v>10</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
       <c r="L13" s="2"/>
@@ -954,20 +1072,20 @@
       <c r="T13" s="2"/>
       <c r="U13" s="2"/>
     </row>
-    <row r="14" spans="1:23" ht="25" customHeight="1">
+    <row r="14" spans="1:26" ht="25" customHeight="1">
       <c r="A14">
         <v>11</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
       <c r="L14" s="2"/>
@@ -981,20 +1099,20 @@
       <c r="T14" s="2"/>
       <c r="U14" s="2"/>
     </row>
-    <row r="15" spans="1:23" ht="25" customHeight="1">
+    <row r="15" spans="1:26" ht="25" customHeight="1">
       <c r="A15">
         <v>12</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
       <c r="L15" s="2"/>
@@ -1008,20 +1126,20 @@
       <c r="T15" s="2"/>
       <c r="U15" s="2"/>
     </row>
-    <row r="16" spans="1:23" ht="25" customHeight="1">
+    <row r="16" spans="1:26" ht="25" customHeight="1">
       <c r="A16">
         <v>13</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
       <c r="L16" s="2"/>
@@ -1039,16 +1157,16 @@
       <c r="A17">
         <v>14</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
       <c r="L17" s="2"/>
@@ -1066,16 +1184,16 @@
       <c r="A18">
         <v>15</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
       <c r="L18" s="2"/>
@@ -1093,16 +1211,16 @@
       <c r="A19">
         <v>16</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
       <c r="L19" s="2"/>
@@ -1120,16 +1238,16 @@
       <c r="A20">
         <v>17</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
       <c r="L20" s="2"/>
@@ -1147,16 +1265,16 @@
       <c r="A21">
         <v>18</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
       <c r="L21" s="2"/>
@@ -1174,16 +1292,16 @@
       <c r="A22">
         <v>19</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
       <c r="L22" s="2"/>
@@ -1201,16 +1319,16 @@
       <c r="A23">
         <v>20</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
       <c r="L23" s="2"/>
@@ -1228,16 +1346,16 @@
       <c r="A24">
         <v>21</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="9" t="s">
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="G24" s="10" t="s">
+      <c r="G24" s="7" t="s">
         <v>21</v>
       </c>
       <c r="H24" s="11" t="s">
@@ -1260,9 +1378,9 @@
       <c r="A25">
         <v>22</v>
       </c>
-      <c r="E25" s="8"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="10" t="s">
+      <c r="E25" s="6"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H25" s="11"/>
@@ -1315,6 +1433,19 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B19:I19"/>
+    <mergeCell ref="B20:I20"/>
+    <mergeCell ref="B21:I21"/>
+    <mergeCell ref="B22:I22"/>
+    <mergeCell ref="B23:I23"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="B14:I14"/>
+    <mergeCell ref="B15:I15"/>
+    <mergeCell ref="B16:I16"/>
+    <mergeCell ref="B17:I17"/>
+    <mergeCell ref="B18:I18"/>
     <mergeCell ref="B10:I10"/>
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="B12:I12"/>
@@ -1325,19 +1456,6 @@
     <mergeCell ref="B7:I7"/>
     <mergeCell ref="B8:I8"/>
     <mergeCell ref="B9:I9"/>
-    <mergeCell ref="B14:I14"/>
-    <mergeCell ref="B15:I15"/>
-    <mergeCell ref="B16:I16"/>
-    <mergeCell ref="B17:I17"/>
-    <mergeCell ref="B18:I18"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B19:I19"/>
-    <mergeCell ref="B20:I20"/>
-    <mergeCell ref="B21:I21"/>
-    <mergeCell ref="B22:I22"/>
-    <mergeCell ref="B23:I23"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="H24:H25"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/C-Learning_layout.xlsx
+++ b/C-Learning_layout.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/i17oonaka/programing/other/souzouEnsyu/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D51D102-7EE0-134A-9F39-6D7A8DFCDF7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE14C1AC-69D9-9549-B0B8-08A2F756C363}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16080" xr2:uid="{78A1B107-CE81-F34A-9CDE-02132650A4B6}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="45">
   <si>
     <t>画面サイズ：width=1000px , height=600px</t>
     <rPh sb="0" eb="2">
@@ -157,14 +157,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>x+1,y,sx,sy</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>x,y+1,sx,xy</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>型名</t>
     <rPh sb="0" eb="2">
       <t>カタメイ</t>
@@ -191,15 +183,108 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>x+1,y+1,sx,sy</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>x+1,y+2,sx,sy</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>x+1,y+3,sx,sy</t>
+    <t xml:space="preserve">各行での処理  </t>
+    <rPh sb="0" eb="2">
+      <t>カクギョウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>定義済みの変数を表記</t>
+    <rPh sb="0" eb="3">
+      <t>テイギ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;15,7,1,1&gt;
+変数名</t>
+    <rPh sb="11" eb="14">
+      <t>ヘンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;15,9,1,2&gt;
+保持してる値</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;17,9,1,1&gt;
+入力値</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">&lt;16,10,1,1&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>⇦</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;12,10,3,1&gt; 型名</t>
+    <rPh sb="12" eb="14">
+      <t>カタメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>12,10,1,1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>14,10,1,1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>16,10,1,1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>18,10,1,1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>12,11,1,2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>14,11,1,2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>16,11,1,2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>18,11,1,2</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -207,7 +292,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -252,8 +337,32 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -286,7 +395,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -305,7 +444,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -330,32 +469,71 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -673,8 +851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{399776A8-7709-AF47-A8A8-715ACFC87567}">
   <dimension ref="A1:Z27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="140" workbookViewId="0">
-      <selection activeCell="W8" sqref="W8"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="111" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4:N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7.140625" defaultRowHeight="25" customHeight="1"/>
@@ -774,628 +952,662 @@
       <c r="A4">
         <v>1</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
-      <c r="L4" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="M4" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
+      <c r="L4" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="12"/>
+      <c r="T4" s="12"/>
+      <c r="U4" s="12"/>
     </row>
     <row r="5" spans="1:26" ht="25" customHeight="1">
       <c r="A5">
         <v>2</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
-      <c r="L5" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="M5" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="N5" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="O5" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-      <c r="U5" s="2"/>
-      <c r="W5" s="14" t="s">
+      <c r="L5" s="11"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="12"/>
+      <c r="S5" s="12"/>
+      <c r="T5" s="12"/>
+      <c r="U5" s="12"/>
+      <c r="W5" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="X5" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y5" s="15"/>
-      <c r="Z5" s="15"/>
+      <c r="X5" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y5" s="9"/>
+      <c r="Z5" s="9"/>
     </row>
     <row r="6" spans="1:26" ht="25" customHeight="1">
       <c r="A6">
         <v>3</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
-      <c r="W6" s="15" t="s">
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="12"/>
+      <c r="U6" s="12"/>
+      <c r="W6" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="X6" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="X6" s="15" t="s">
+      <c r="Y6" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z6" s="9" t="s">
         <v>29</v>
-      </c>
-      <c r="Y6" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z6" s="15" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="25" customHeight="1">
       <c r="A7">
         <v>4</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
-      <c r="T7" s="2"/>
-      <c r="U7" s="2"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="12"/>
+      <c r="T7" s="12"/>
+      <c r="U7" s="12"/>
     </row>
     <row r="8" spans="1:26" ht="25" customHeight="1">
       <c r="A8">
         <v>5</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
-      <c r="T8" s="2"/>
-      <c r="U8" s="2"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="12"/>
+      <c r="T8" s="12"/>
+      <c r="U8" s="12"/>
+      <c r="W8" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="X8" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y8" s="9"/>
+      <c r="Z8" s="9"/>
     </row>
     <row r="9" spans="1:26" ht="25" customHeight="1">
       <c r="A9">
         <v>6</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
-      <c r="T9" s="2"/>
-      <c r="U9" s="2"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="S9" s="12"/>
+      <c r="T9" s="12"/>
+      <c r="U9" s="12"/>
+      <c r="W9" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="X9" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y9" s="9"/>
+      <c r="Z9" s="9"/>
     </row>
     <row r="10" spans="1:26" ht="25" customHeight="1">
       <c r="A10">
         <v>7</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
-      <c r="S10" s="2"/>
-      <c r="T10" s="2"/>
-      <c r="U10" s="2"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="20"/>
+      <c r="Q10" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="R10" s="20"/>
+      <c r="S10" s="12"/>
+      <c r="T10" s="12"/>
+      <c r="U10" s="12"/>
     </row>
     <row r="11" spans="1:26" ht="25" customHeight="1">
       <c r="A11">
         <v>8</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
-      <c r="S11" s="2"/>
-      <c r="T11" s="2"/>
-      <c r="U11" s="2"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="12"/>
+      <c r="S11" s="12"/>
+      <c r="T11" s="12"/>
+      <c r="U11" s="12"/>
     </row>
     <row r="12" spans="1:26" ht="25" customHeight="1">
       <c r="A12">
         <v>9</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
-      <c r="S12" s="2"/>
-      <c r="T12" s="2"/>
-      <c r="U12" s="2"/>
+      <c r="L12" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="14"/>
+      <c r="S12" s="14"/>
+      <c r="T12" s="14"/>
+      <c r="U12" s="14"/>
     </row>
     <row r="13" spans="1:26" ht="25" customHeight="1">
       <c r="A13">
         <v>10</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="2"/>
-      <c r="S13" s="2"/>
-      <c r="T13" s="2"/>
-      <c r="U13" s="2"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="N13" s="14"/>
+      <c r="O13" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="R13" s="14"/>
+      <c r="S13" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="T13" s="14"/>
+      <c r="U13" s="14"/>
     </row>
     <row r="14" spans="1:26" ht="25" customHeight="1">
       <c r="A14">
         <v>11</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="2"/>
-      <c r="S14" s="2"/>
-      <c r="T14" s="2"/>
-      <c r="U14" s="2"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="N14" s="14"/>
+      <c r="O14" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="R14" s="14"/>
+      <c r="S14" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="T14" s="14"/>
+      <c r="U14" s="14"/>
     </row>
     <row r="15" spans="1:26" ht="25" customHeight="1">
       <c r="A15">
         <v>12</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="2"/>
-      <c r="S15" s="2"/>
-      <c r="T15" s="2"/>
-      <c r="U15" s="2"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="28"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="28"/>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="25"/>
+      <c r="R15" s="14"/>
+      <c r="S15" s="28"/>
+      <c r="T15" s="14"/>
+      <c r="U15" s="14"/>
     </row>
     <row r="16" spans="1:26" ht="25" customHeight="1">
       <c r="A16">
         <v>13</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="2"/>
-      <c r="S16" s="2"/>
-      <c r="T16" s="2"/>
-      <c r="U16" s="2"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="14"/>
+      <c r="R16" s="14"/>
+      <c r="S16" s="14"/>
+      <c r="T16" s="14"/>
+      <c r="U16" s="14"/>
     </row>
     <row r="17" spans="1:21" ht="25" customHeight="1">
       <c r="A17">
         <v>14</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="2"/>
-      <c r="R17" s="2"/>
-      <c r="S17" s="2"/>
-      <c r="T17" s="2"/>
-      <c r="U17" s="2"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="14"/>
+      <c r="Q17" s="14"/>
+      <c r="R17" s="14"/>
+      <c r="S17" s="14"/>
+      <c r="T17" s="14"/>
+      <c r="U17" s="14"/>
     </row>
     <row r="18" spans="1:21" ht="25" customHeight="1">
       <c r="A18">
         <v>15</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-      <c r="P18" s="2"/>
-      <c r="Q18" s="2"/>
-      <c r="R18" s="2"/>
-      <c r="S18" s="2"/>
-      <c r="T18" s="2"/>
-      <c r="U18" s="2"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="14"/>
+      <c r="Q18" s="14"/>
+      <c r="R18" s="14"/>
+      <c r="S18" s="14"/>
+      <c r="T18" s="14"/>
+      <c r="U18" s="14"/>
     </row>
     <row r="19" spans="1:21" ht="25" customHeight="1">
       <c r="A19">
         <v>16</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
-      <c r="P19" s="2"/>
-      <c r="Q19" s="2"/>
-      <c r="R19" s="2"/>
-      <c r="S19" s="2"/>
-      <c r="T19" s="2"/>
-      <c r="U19" s="2"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="14"/>
+      <c r="P19" s="14"/>
+      <c r="Q19" s="14"/>
+      <c r="R19" s="14"/>
+      <c r="S19" s="14"/>
+      <c r="T19" s="14"/>
+      <c r="U19" s="14"/>
     </row>
     <row r="20" spans="1:21" ht="25" customHeight="1">
       <c r="A20">
         <v>17</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="2"/>
-      <c r="Q20" s="2"/>
-      <c r="R20" s="2"/>
-      <c r="S20" s="2"/>
-      <c r="T20" s="2"/>
-      <c r="U20" s="2"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="14"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="14"/>
+      <c r="Q20" s="14"/>
+      <c r="R20" s="14"/>
+      <c r="S20" s="14"/>
+      <c r="T20" s="14"/>
+      <c r="U20" s="14"/>
     </row>
     <row r="21" spans="1:21" ht="25" customHeight="1">
       <c r="A21">
         <v>18</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
-      <c r="P21" s="2"/>
-      <c r="Q21" s="2"/>
-      <c r="R21" s="2"/>
-      <c r="S21" s="2"/>
-      <c r="T21" s="2"/>
-      <c r="U21" s="2"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="14"/>
+      <c r="O21" s="14"/>
+      <c r="P21" s="14"/>
+      <c r="Q21" s="14"/>
+      <c r="R21" s="14"/>
+      <c r="S21" s="14"/>
+      <c r="T21" s="14"/>
+      <c r="U21" s="14"/>
     </row>
     <row r="22" spans="1:21" ht="25" customHeight="1">
       <c r="A22">
         <v>19</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
-      <c r="P22" s="2"/>
-      <c r="Q22" s="2"/>
-      <c r="R22" s="2"/>
-      <c r="S22" s="2"/>
-      <c r="T22" s="2"/>
-      <c r="U22" s="2"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="14"/>
+      <c r="O22" s="14"/>
+      <c r="P22" s="14"/>
+      <c r="Q22" s="14"/>
+      <c r="R22" s="14"/>
+      <c r="S22" s="14"/>
+      <c r="T22" s="14"/>
+      <c r="U22" s="14"/>
     </row>
     <row r="23" spans="1:21" ht="25" customHeight="1">
       <c r="A23">
         <v>20</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
-      <c r="P23" s="2"/>
-      <c r="Q23" s="2"/>
-      <c r="R23" s="2"/>
-      <c r="S23" s="2"/>
-      <c r="T23" s="2"/>
-      <c r="U23" s="2"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="14"/>
+      <c r="O23" s="14"/>
+      <c r="P23" s="14"/>
+      <c r="Q23" s="14"/>
+      <c r="R23" s="14"/>
+      <c r="S23" s="14"/>
+      <c r="T23" s="14"/>
+      <c r="U23" s="14"/>
     </row>
     <row r="24" spans="1:21" ht="25" customHeight="1">
       <c r="A24">
         <v>21</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
       <c r="E24" s="5"/>
-      <c r="F24" s="10" t="s">
+      <c r="F24" s="23" t="s">
         <v>20</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H24" s="11" t="s">
+      <c r="H24" s="24" t="s">
         <v>23</v>
       </c>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
-      <c r="P24" s="2"/>
-      <c r="Q24" s="2"/>
-      <c r="R24" s="2"/>
-      <c r="S24" s="2"/>
-      <c r="T24" s="2"/>
-      <c r="U24" s="2"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="14"/>
+      <c r="O24" s="14"/>
+      <c r="P24" s="14"/>
+      <c r="Q24" s="14"/>
+      <c r="R24" s="14"/>
+      <c r="S24" s="14"/>
+      <c r="T24" s="14"/>
+      <c r="U24" s="14"/>
     </row>
     <row r="25" spans="1:21" ht="25" customHeight="1">
       <c r="A25">
         <v>22</v>
       </c>
       <c r="E25" s="6"/>
-      <c r="F25" s="10"/>
+      <c r="F25" s="23"/>
       <c r="G25" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H25" s="11"/>
+      <c r="H25" s="24"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
-      <c r="P25" s="2"/>
-      <c r="Q25" s="2"/>
-      <c r="R25" s="2"/>
-      <c r="S25" s="2"/>
-      <c r="T25" s="2"/>
-      <c r="U25" s="2"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="14"/>
+      <c r="N25" s="14"/>
+      <c r="O25" s="14"/>
+      <c r="P25" s="14"/>
+      <c r="Q25" s="14"/>
+      <c r="R25" s="14"/>
+      <c r="S25" s="14"/>
+      <c r="T25" s="14"/>
+      <c r="U25" s="14"/>
     </row>
     <row r="26" spans="1:21" ht="25" customHeight="1">
       <c r="A26">
@@ -1403,16 +1615,16 @@
       </c>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
-      <c r="P26" s="2"/>
-      <c r="Q26" s="2"/>
-      <c r="R26" s="2"/>
-      <c r="S26" s="2"/>
-      <c r="T26" s="2"/>
-      <c r="U26" s="2"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="14"/>
+      <c r="N26" s="14"/>
+      <c r="O26" s="14"/>
+      <c r="P26" s="14"/>
+      <c r="Q26" s="14"/>
+      <c r="R26" s="14"/>
+      <c r="S26" s="14"/>
+      <c r="T26" s="14"/>
+      <c r="U26" s="14"/>
     </row>
     <row r="27" spans="1:21" ht="25" customHeight="1">
       <c r="A27">
@@ -1420,32 +1632,23 @@
       </c>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
-      <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
-      <c r="P27" s="2"/>
-      <c r="Q27" s="2"/>
-      <c r="R27" s="2"/>
-      <c r="S27" s="2"/>
-      <c r="T27" s="2"/>
-      <c r="U27" s="2"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="14"/>
+      <c r="N27" s="14"/>
+      <c r="O27" s="14"/>
+      <c r="P27" s="14"/>
+      <c r="Q27" s="14"/>
+      <c r="R27" s="14"/>
+      <c r="S27" s="14"/>
+      <c r="T27" s="14"/>
+      <c r="U27" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B19:I19"/>
-    <mergeCell ref="B20:I20"/>
-    <mergeCell ref="B21:I21"/>
-    <mergeCell ref="B22:I22"/>
-    <mergeCell ref="B23:I23"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="B14:I14"/>
-    <mergeCell ref="B15:I15"/>
-    <mergeCell ref="B16:I16"/>
-    <mergeCell ref="B17:I17"/>
-    <mergeCell ref="B18:I18"/>
+  <mergeCells count="32">
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="O14:O15"/>
+    <mergeCell ref="Q14:Q15"/>
+    <mergeCell ref="S14:S15"/>
     <mergeCell ref="B10:I10"/>
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="B12:I12"/>
@@ -1456,6 +1659,24 @@
     <mergeCell ref="B7:I7"/>
     <mergeCell ref="B8:I8"/>
     <mergeCell ref="B9:I9"/>
+    <mergeCell ref="B14:I14"/>
+    <mergeCell ref="B15:I15"/>
+    <mergeCell ref="B16:I16"/>
+    <mergeCell ref="B17:I17"/>
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B19:I19"/>
+    <mergeCell ref="B20:I20"/>
+    <mergeCell ref="B21:I21"/>
+    <mergeCell ref="B22:I22"/>
+    <mergeCell ref="B23:I23"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="L12:N12"/>
+    <mergeCell ref="P9:P10"/>
+    <mergeCell ref="R9:R10"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/C-Learning_layout.xlsx
+++ b/C-Learning_layout.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/i17oonaka/programing/other/souzouEnsyu/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE14C1AC-69D9-9549-B0B8-08A2F756C363}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{162436BE-2A00-AF43-86C3-B351D1127920}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16080" xr2:uid="{78A1B107-CE81-F34A-9CDE-02132650A4B6}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="45">
   <si>
     <t>画面サイズ：width=1000px , height=600px</t>
     <rPh sb="0" eb="2">
@@ -496,6 +496,33 @@
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -507,33 +534,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -851,8 +851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{399776A8-7709-AF47-A8A8-715ACFC87567}">
   <dimension ref="A1:Z27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="111" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4:N4"/>
+    <sheetView tabSelected="1" topLeftCell="AC1" zoomScale="62" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7.140625" defaultRowHeight="25" customHeight="1"/>
@@ -964,11 +964,11 @@
       <c r="I4" s="22"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
-      <c r="L4" s="18" t="s">
+      <c r="L4" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="M4" s="18"/>
-      <c r="N4" s="18"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="27"/>
       <c r="O4" s="12"/>
       <c r="P4" s="12"/>
       <c r="Q4" s="12"/>
@@ -1135,11 +1135,11 @@
       <c r="M9" s="12"/>
       <c r="N9" s="12"/>
       <c r="O9" s="12"/>
-      <c r="P9" s="20" t="s">
+      <c r="P9" s="29" t="s">
         <v>33</v>
       </c>
       <c r="Q9" s="12"/>
-      <c r="R9" s="20" t="s">
+      <c r="R9" s="29" t="s">
         <v>34</v>
       </c>
       <c r="S9" s="12"/>
@@ -1171,16 +1171,16 @@
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
       <c r="L10" s="12"/>
-      <c r="M10" s="17" t="s">
+      <c r="M10" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="20"/>
+      <c r="N10" s="26"/>
+      <c r="O10" s="26"/>
+      <c r="P10" s="29"/>
       <c r="Q10" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="R10" s="20"/>
+      <c r="R10" s="29"/>
       <c r="S10" s="12"/>
       <c r="T10" s="12"/>
       <c r="U10" s="12"/>
@@ -1228,11 +1228,11 @@
       <c r="I12" s="22"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
-      <c r="L12" s="19" t="s">
+      <c r="L12" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="M12" s="19"/>
-      <c r="N12" s="19"/>
+      <c r="M12" s="28"/>
+      <c r="N12" s="28"/>
       <c r="O12" s="14"/>
       <c r="P12" s="14"/>
       <c r="Q12" s="14"/>
@@ -1258,19 +1258,19 @@
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
       <c r="L13" s="14"/>
-      <c r="M13" s="26" t="s">
+      <c r="M13" s="17" t="s">
         <v>37</v>
       </c>
       <c r="N13" s="14"/>
-      <c r="O13" s="26" t="s">
+      <c r="O13" s="17" t="s">
         <v>38</v>
       </c>
       <c r="P13" s="14"/>
-      <c r="Q13" s="27" t="s">
+      <c r="Q13" s="18" t="s">
         <v>39</v>
       </c>
       <c r="R13" s="14"/>
-      <c r="S13" s="27" t="s">
+      <c r="S13" s="18" t="s">
         <v>40</v>
       </c>
       <c r="T13" s="14"/>
@@ -1293,19 +1293,19 @@
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
       <c r="L14" s="14"/>
-      <c r="M14" s="28" t="s">
+      <c r="M14" s="19" t="s">
         <v>41</v>
       </c>
       <c r="N14" s="14"/>
-      <c r="O14" s="28" t="s">
+      <c r="O14" s="19" t="s">
         <v>42</v>
       </c>
       <c r="P14" s="14"/>
-      <c r="Q14" s="29" t="s">
+      <c r="Q14" s="20" t="s">
         <v>43</v>
       </c>
       <c r="R14" s="14"/>
-      <c r="S14" s="28" t="s">
+      <c r="S14" s="19" t="s">
         <v>44</v>
       </c>
       <c r="T14" s="14"/>
@@ -1328,13 +1328,13 @@
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
       <c r="L15" s="14"/>
-      <c r="M15" s="28"/>
+      <c r="M15" s="19"/>
       <c r="N15" s="14"/>
-      <c r="O15" s="28"/>
+      <c r="O15" s="19"/>
       <c r="P15" s="14"/>
-      <c r="Q15" s="25"/>
+      <c r="Q15" s="21"/>
       <c r="R15" s="14"/>
-      <c r="S15" s="28"/>
+      <c r="S15" s="19"/>
       <c r="T15" s="14"/>
       <c r="U15" s="14"/>
     </row>
@@ -1355,7 +1355,9 @@
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
       <c r="L16" s="14"/>
-      <c r="M16" s="14"/>
+      <c r="M16" s="14" t="s">
+        <v>17</v>
+      </c>
       <c r="N16" s="14"/>
       <c r="O16" s="14"/>
       <c r="P16" s="14"/>
@@ -1382,7 +1384,9 @@
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
       <c r="L17" s="14"/>
-      <c r="M17" s="14"/>
+      <c r="M17" s="14" t="s">
+        <v>17</v>
+      </c>
       <c r="N17" s="14"/>
       <c r="O17" s="14"/>
       <c r="P17" s="14"/>
@@ -1409,7 +1413,9 @@
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
       <c r="L18" s="14"/>
-      <c r="M18" s="14"/>
+      <c r="M18" s="14" t="s">
+        <v>17</v>
+      </c>
       <c r="N18" s="14"/>
       <c r="O18" s="14"/>
       <c r="P18" s="14"/>
@@ -1558,19 +1564,19 @@
       <c r="A24">
         <v>21</v>
       </c>
-      <c r="B24" s="21" t="s">
+      <c r="B24" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
       <c r="E24" s="5"/>
-      <c r="F24" s="23" t="s">
+      <c r="F24" s="24" t="s">
         <v>20</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H24" s="24" t="s">
+      <c r="H24" s="25" t="s">
         <v>23</v>
       </c>
       <c r="J24" s="1"/>
@@ -1591,11 +1597,11 @@
         <v>22</v>
       </c>
       <c r="E25" s="6"/>
-      <c r="F25" s="23"/>
+      <c r="F25" s="24"/>
       <c r="G25" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H25" s="24"/>
+      <c r="H25" s="25"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="14"/>
@@ -1645,24 +1651,10 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="O14:O15"/>
-    <mergeCell ref="Q14:Q15"/>
-    <mergeCell ref="S14:S15"/>
-    <mergeCell ref="B10:I10"/>
-    <mergeCell ref="B11:I11"/>
-    <mergeCell ref="B12:I12"/>
-    <mergeCell ref="B13:I13"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="B5:I5"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B9:I9"/>
-    <mergeCell ref="B14:I14"/>
-    <mergeCell ref="B15:I15"/>
-    <mergeCell ref="B16:I16"/>
-    <mergeCell ref="B17:I17"/>
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="L12:N12"/>
+    <mergeCell ref="P9:P10"/>
+    <mergeCell ref="R9:R10"/>
     <mergeCell ref="B18:I18"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="B19:I19"/>
@@ -1672,11 +1664,25 @@
     <mergeCell ref="B23:I23"/>
     <mergeCell ref="F24:F25"/>
     <mergeCell ref="H24:H25"/>
+    <mergeCell ref="B9:I9"/>
+    <mergeCell ref="B14:I14"/>
+    <mergeCell ref="B15:I15"/>
+    <mergeCell ref="B16:I16"/>
+    <mergeCell ref="B17:I17"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="O14:O15"/>
+    <mergeCell ref="Q14:Q15"/>
+    <mergeCell ref="S14:S15"/>
+    <mergeCell ref="B10:I10"/>
+    <mergeCell ref="B11:I11"/>
+    <mergeCell ref="B12:I12"/>
+    <mergeCell ref="B13:I13"/>
     <mergeCell ref="M10:O10"/>
-    <mergeCell ref="L4:N4"/>
-    <mergeCell ref="L12:N12"/>
-    <mergeCell ref="P9:P10"/>
-    <mergeCell ref="R9:R10"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
